--- a/MMN/MSTIomi_ClickTrain_Config.xlsx
+++ b/MMN/MSTIomi_ClickTrain_Config.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E43399E-576F-4ACE-870B-0836397A5833}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E441106-0613-4A09-8A39-5B7B182537C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -195,6 +195,22 @@
   </si>
   <si>
     <t>ManyStd_ICI = roundn(logspace(log10(ManyStd_Range(1)),log10(ManyStd_Range(1)*ManyStd_devratio^(n - 1)),n), -2);</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSTIomi_S1-14o4_S2-17o3_ISI_400_Dur_200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSTIomi_S1-14o4_S2-17o3_ISI_400_Dur_200_STDN_12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.4,17.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,18</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -703,20 +719,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.4140625" customWidth="1"/>
-    <col min="4" max="4" width="34.25" customWidth="1"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="42.25" customWidth="1"/>
-    <col min="7" max="7" width="16.58203125" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="37.4140625" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27.4140625" customWidth="1"/>
+    <col min="7" max="7" width="7.08203125" customWidth="1"/>
     <col min="8" max="8" width="7.4140625" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" customWidth="1"/>
     <col min="12" max="13" width="13.4140625" customWidth="1"/>
@@ -886,9 +903,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="33" customFormat="1" ht="143.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="33" customFormat="1" ht="86.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="31" t="s">
         <v>24</v>
@@ -955,6 +972,78 @@
       </c>
       <c r="W3" s="35"/>
       <c r="Z3" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="33" customFormat="1" ht="86.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30">
+        <v>1.2</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="32">
+        <v>97656</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="33">
+        <v>1</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="32">
+        <v>1</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="31">
+        <v>1</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="35"/>
+      <c r="Z4" s="36" t="s">
         <v>42</v>
       </c>
     </row>
